--- a/Network Model/Network_results.xlsx
+++ b/Network Model/Network_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizbili\Desktop\projet homeostasie douleur\papier\Codes_papier\Network model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8494D9-48E3-4B5E-A584-FADA085CFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A265CE37-E9CF-4C93-94EC-BC4A517C2454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spike_nb_pyr" sheetId="1" r:id="rId1"/>
@@ -31,61 +31,61 @@
     <t>10_SHAM_Male</t>
   </si>
   <si>
-    <t>10_LNIO_Male</t>
-  </si>
-  <si>
     <t>10_SHAM_Female</t>
-  </si>
-  <si>
-    <t>10_LNIO_Female</t>
   </si>
   <si>
     <t>20_SHAM_Male</t>
   </si>
   <si>
-    <t>20_LNIO_Male</t>
-  </si>
-  <si>
     <t>20_SHAM_Female</t>
-  </si>
-  <si>
-    <t>20_LNIO_Female</t>
   </si>
   <si>
     <t>40_SHAM_Male</t>
   </si>
   <si>
-    <t>40_LNIO_Male</t>
-  </si>
-  <si>
     <t>40_SHAM_Female</t>
-  </si>
-  <si>
-    <t>40_LNIO_Female</t>
   </si>
   <si>
     <t>60_SHAM_Male</t>
   </si>
   <si>
-    <t>60_LNIO_Male</t>
-  </si>
-  <si>
     <t>60_SHAM_Female</t>
-  </si>
-  <si>
-    <t>60_LNIO_Female</t>
   </si>
   <si>
     <t>0.2_SHAM_Male</t>
   </si>
   <si>
-    <t>0.2_LNIO_Male</t>
-  </si>
-  <si>
     <t>0.2_SHAM_Female</t>
   </si>
   <si>
-    <t>0.2_LNIO_Female</t>
+    <t>0.2_IONL_Male</t>
+  </si>
+  <si>
+    <t>0.2_IONL_Female</t>
+  </si>
+  <si>
+    <t>10_IONL_Male</t>
+  </si>
+  <si>
+    <t>10_IONL_Female</t>
+  </si>
+  <si>
+    <t>20_IONL_Male</t>
+  </si>
+  <si>
+    <t>20_IONL_Female</t>
+  </si>
+  <si>
+    <t>40_IONL_Male</t>
+  </si>
+  <si>
+    <t>40_IONL_Female</t>
+  </si>
+  <si>
+    <t>60_IONL_Male</t>
+  </si>
+  <si>
+    <t>60_IONL_Female</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,64 +461,64 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1830,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1841,64 +1841,64 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
